--- a/tl/S00033.MES.BIN.xlsx
+++ b/tl/S00033.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0D484E-66E4-4CEE-9870-643D59ED2599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11538F23-E620-4630-AF86-15AD2FC36A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="11550" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="9810" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00033.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="366">
   <si>
     <t>Status</t>
   </si>
@@ -452,6 +452,9 @@
     <t>119</t>
   </si>
   <si>
+    <t>...Am I seeing things?</t>
+  </si>
+  <si>
     <t>Right...?</t>
   </si>
   <si>
@@ -512,7 +515,7 @@
     <t>135</t>
   </si>
   <si>
-    <t>Phew...</t>
+    <t>Phew, I'm glad.</t>
   </si>
   <si>
     <t>That's good.</t>
@@ -647,7 +650,7 @@
     <t>175</t>
   </si>
   <si>
-    <t>Oh, no, that's alright.</t>
+    <t>Oh, it's no problem.</t>
   </si>
   <si>
     <t>"Oh, it's alright."</t>
@@ -689,7 +692,7 @@
     <t>187</t>
   </si>
   <si>
-    <t>And when she starts walking down the hallway, dragging the weak-looking man from before with her, a man passes by.</t>
+    <t>And when she starts walking down the hallway, dragging the weak-looking man from before with her, a different man passes by.</t>
   </si>
   <si>
     <t>189</t>
@@ -3478,10 +3481,10 @@
         <v>9</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>9</v>
@@ -3498,13 +3501,13 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>9</v>
@@ -3513,7 +3516,7 @@
         <v>9</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>9</v>
@@ -3530,7 +3533,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>10</v>
@@ -3545,7 +3548,7 @@
         <v>9</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>9</v>
@@ -3562,7 +3565,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3577,7 +3580,7 @@
         <v>9</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>9</v>
@@ -3594,7 +3597,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>9</v>
@@ -3609,7 +3612,7 @@
         <v>9</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>9</v>
@@ -3626,7 +3629,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3638,10 +3641,10 @@
         <v>9</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>9</v>
@@ -3658,7 +3661,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>9</v>
@@ -3673,7 +3676,7 @@
         <v>9</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>9</v>
@@ -3690,7 +3693,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3702,10 +3705,10 @@
         <v>9</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>9</v>
@@ -3722,22 +3725,22 @@
         <v>9</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>9</v>
@@ -3754,13 +3757,13 @@
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>9</v>
@@ -3769,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>9</v>
@@ -3786,7 +3789,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>9</v>
@@ -3801,7 +3804,7 @@
         <v>9</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>9</v>
@@ -3818,7 +3821,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3833,7 +3836,7 @@
         <v>9</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>9</v>
@@ -3850,7 +3853,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>9</v>
@@ -3865,7 +3868,7 @@
         <v>9</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>9</v>
@@ -3882,7 +3885,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3897,7 +3900,7 @@
         <v>9</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>9</v>
@@ -3914,7 +3917,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
@@ -3929,7 +3932,7 @@
         <v>9</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>9</v>
@@ -3946,7 +3949,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3958,10 +3961,10 @@
         <v>9</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>9</v>
@@ -3978,7 +3981,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>9</v>
@@ -3993,7 +3996,7 @@
         <v>9</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>9</v>
@@ -4010,13 +4013,13 @@
         <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
@@ -4025,7 +4028,7 @@
         <v>9</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>9</v>
@@ -4042,7 +4045,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>10</v>
@@ -4057,7 +4060,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>9</v>
@@ -4074,13 +4077,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
@@ -4089,7 +4092,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>9</v>
@@ -4106,7 +4109,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>9</v>
@@ -4121,7 +4124,7 @@
         <v>9</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>9</v>
@@ -4138,7 +4141,7 @@
         <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -4150,10 +4153,10 @@
         <v>9</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>9</v>
@@ -4170,13 +4173,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>9</v>
@@ -4185,7 +4188,7 @@
         <v>9</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>9</v>
@@ -4202,7 +4205,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -4214,10 +4217,10 @@
         <v>9</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>9</v>
@@ -4234,7 +4237,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>9</v>
@@ -4249,7 +4252,7 @@
         <v>9</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>9</v>
@@ -4266,7 +4269,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -4281,7 +4284,7 @@
         <v>9</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>9</v>
@@ -4298,7 +4301,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>10</v>
@@ -4310,10 +4313,10 @@
         <v>9</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>9</v>
@@ -4330,7 +4333,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -4345,7 +4348,7 @@
         <v>9</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>9</v>
@@ -4362,22 +4365,22 @@
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>9</v>
@@ -4394,7 +4397,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -4409,7 +4412,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>9</v>
@@ -4426,7 +4429,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>9</v>
@@ -4441,7 +4444,7 @@
         <v>9</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>9</v>
@@ -4458,7 +4461,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -4470,10 +4473,10 @@
         <v>9</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>9</v>
@@ -4490,13 +4493,13 @@
         <v>9</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>9</v>
@@ -4505,7 +4508,7 @@
         <v>9</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>9</v>
@@ -4522,7 +4525,7 @@
         <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -4537,7 +4540,7 @@
         <v>9</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>9</v>
@@ -4554,7 +4557,7 @@
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>9</v>
@@ -4569,7 +4572,7 @@
         <v>9</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>9</v>
@@ -4586,7 +4589,7 @@
         <v>9</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
@@ -4601,7 +4604,7 @@
         <v>9</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>9</v>
@@ -4618,7 +4621,7 @@
         <v>9</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>9</v>
@@ -4633,7 +4636,7 @@
         <v>9</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>9</v>
@@ -4650,7 +4653,7 @@
         <v>9</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -4665,7 +4668,7 @@
         <v>9</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>9</v>
@@ -4682,7 +4685,7 @@
         <v>9</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>9</v>
@@ -4697,7 +4700,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>9</v>
@@ -4714,7 +4717,7 @@
         <v>9</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -4729,7 +4732,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>9</v>
@@ -4746,7 +4749,7 @@
         <v>9</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>9</v>
@@ -4761,7 +4764,7 @@
         <v>9</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>9</v>
@@ -4778,13 +4781,13 @@
         <v>9</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>9</v>
@@ -4793,7 +4796,7 @@
         <v>9</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>9</v>
@@ -4810,7 +4813,7 @@
         <v>9</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>9</v>
@@ -4825,7 +4828,7 @@
         <v>9</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>9</v>
@@ -4842,7 +4845,7 @@
         <v>9</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
@@ -4854,10 +4857,10 @@
         <v>9</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>9</v>
@@ -4874,13 +4877,13 @@
         <v>9</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>9</v>
@@ -4889,7 +4892,7 @@
         <v>9</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>9</v>
@@ -4906,7 +4909,7 @@
         <v>9</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4921,7 +4924,7 @@
         <v>9</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>9</v>
@@ -4938,7 +4941,7 @@
         <v>9</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>10</v>
@@ -4953,7 +4956,7 @@
         <v>9</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>9</v>
@@ -4970,7 +4973,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4985,7 +4988,7 @@
         <v>9</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>9</v>
@@ -5002,13 +5005,13 @@
         <v>9</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>9</v>
@@ -5017,7 +5020,7 @@
         <v>9</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>9</v>
@@ -5034,7 +5037,7 @@
         <v>9</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
@@ -5049,7 +5052,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>9</v>
@@ -5066,7 +5069,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>9</v>
@@ -5081,7 +5084,7 @@
         <v>9</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>9</v>
@@ -5098,13 +5101,13 @@
         <v>9</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>9</v>
@@ -5113,7 +5116,7 @@
         <v>9</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>9</v>
@@ -5130,13 +5133,13 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>9</v>
@@ -5145,7 +5148,7 @@
         <v>9</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>9</v>
@@ -5162,7 +5165,7 @@
         <v>9</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -5177,7 +5180,7 @@
         <v>9</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>9</v>
@@ -5194,13 +5197,13 @@
         <v>9</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>9</v>
@@ -5209,7 +5212,7 @@
         <v>9</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>9</v>
@@ -5226,7 +5229,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
@@ -5241,7 +5244,7 @@
         <v>9</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>9</v>
@@ -5258,7 +5261,7 @@
         <v>9</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>9</v>
@@ -5273,7 +5276,7 @@
         <v>9</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>9</v>
@@ -5290,13 +5293,13 @@
         <v>9</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>9</v>
@@ -5305,7 +5308,7 @@
         <v>9</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>9</v>
@@ -5322,7 +5325,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>10</v>
@@ -5334,10 +5337,10 @@
         <v>9</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>9</v>
@@ -5354,7 +5357,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -5369,7 +5372,7 @@
         <v>9</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>9</v>
@@ -5386,7 +5389,7 @@
         <v>9</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>9</v>
@@ -5401,7 +5404,7 @@
         <v>9</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>9</v>
@@ -5418,7 +5421,7 @@
         <v>9</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -5433,7 +5436,7 @@
         <v>9</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>9</v>
@@ -5450,7 +5453,7 @@
         <v>9</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>10</v>
@@ -5465,7 +5468,7 @@
         <v>9</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>9</v>
@@ -5482,13 +5485,13 @@
         <v>9</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>9</v>
@@ -5497,7 +5500,7 @@
         <v>9</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>9</v>
@@ -5514,13 +5517,13 @@
         <v>9</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>9</v>
@@ -5529,7 +5532,7 @@
         <v>9</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>9</v>
@@ -5546,7 +5549,7 @@
         <v>9</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>10</v>
@@ -5561,7 +5564,7 @@
         <v>9</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>9</v>
@@ -5578,7 +5581,7 @@
         <v>9</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>9</v>
@@ -5593,7 +5596,7 @@
         <v>9</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>9</v>
@@ -5610,7 +5613,7 @@
         <v>9</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -5625,7 +5628,7 @@
         <v>9</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>9</v>
@@ -5642,7 +5645,7 @@
         <v>9</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>9</v>
@@ -5657,7 +5660,7 @@
         <v>9</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>9</v>
@@ -5674,7 +5677,7 @@
         <v>9</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -5689,7 +5692,7 @@
         <v>9</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>9</v>
@@ -5706,7 +5709,7 @@
         <v>9</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>9</v>
@@ -5721,7 +5724,7 @@
         <v>9</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>9</v>
@@ -5738,7 +5741,7 @@
         <v>9</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -5753,7 +5756,7 @@
         <v>9</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>9</v>
@@ -5770,7 +5773,7 @@
         <v>9</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>9</v>
@@ -5785,7 +5788,7 @@
         <v>9</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>9</v>
@@ -5802,7 +5805,7 @@
         <v>9</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -5817,7 +5820,7 @@
         <v>9</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>9</v>
@@ -5834,7 +5837,7 @@
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>9</v>
@@ -5849,7 +5852,7 @@
         <v>9</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>9</v>
@@ -5866,7 +5869,7 @@
         <v>9</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -5881,7 +5884,7 @@
         <v>9</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>9</v>
@@ -5898,7 +5901,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>9</v>
@@ -5913,7 +5916,7 @@
         <v>9</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>9</v>
@@ -5930,7 +5933,7 @@
         <v>9</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -5945,7 +5948,7 @@
         <v>9</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>9</v>
@@ -5962,7 +5965,7 @@
         <v>9</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>9</v>
@@ -5977,7 +5980,7 @@
         <v>9</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>9</v>
@@ -5994,7 +5997,7 @@
         <v>9</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -6009,7 +6012,7 @@
         <v>9</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>9</v>
@@ -6026,7 +6029,7 @@
         <v>9</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>9</v>
@@ -6041,7 +6044,7 @@
         <v>9</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>9</v>
@@ -6058,7 +6061,7 @@
         <v>9</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -6073,7 +6076,7 @@
         <v>9</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>9</v>
@@ -6090,7 +6093,7 @@
         <v>9</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>9</v>
@@ -6105,7 +6108,7 @@
         <v>9</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>9</v>
@@ -6122,13 +6125,13 @@
         <v>9</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>9</v>
@@ -6137,7 +6140,7 @@
         <v>9</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>9</v>
@@ -6154,7 +6157,7 @@
         <v>9</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>9</v>
@@ -6169,7 +6172,7 @@
         <v>9</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>9</v>
@@ -6186,7 +6189,7 @@
         <v>9</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -6201,7 +6204,7 @@
         <v>9</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>9</v>
@@ -6218,13 +6221,13 @@
         <v>9</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>9</v>
@@ -6233,7 +6236,7 @@
         <v>9</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>9</v>
@@ -6250,7 +6253,7 @@
         <v>9</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>10</v>
@@ -6265,7 +6268,7 @@
         <v>9</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>9</v>
@@ -6282,7 +6285,7 @@
         <v>9</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>9</v>
@@ -6297,7 +6300,7 @@
         <v>9</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>9</v>
@@ -6314,13 +6317,13 @@
         <v>9</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>9</v>
@@ -6329,7 +6332,7 @@
         <v>9</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>9</v>
@@ -6346,7 +6349,7 @@
         <v>9</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>10</v>
@@ -6361,7 +6364,7 @@
         <v>9</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>9</v>
@@ -6378,13 +6381,13 @@
         <v>9</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>9</v>
@@ -6393,7 +6396,7 @@
         <v>9</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>9</v>
@@ -6410,7 +6413,7 @@
         <v>9</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>9</v>
@@ -6425,7 +6428,7 @@
         <v>9</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>9</v>
@@ -6442,7 +6445,7 @@
         <v>9</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -6457,7 +6460,7 @@
         <v>9</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>9</v>
@@ -6474,22 +6477,22 @@
         <v>9</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>9</v>
@@ -6506,13 +6509,13 @@
         <v>9</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>9</v>
@@ -6521,7 +6524,7 @@
         <v>9</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>9</v>
@@ -6538,7 +6541,7 @@
         <v>9</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>9</v>
@@ -6553,7 +6556,7 @@
         <v>9</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>9</v>
@@ -6570,7 +6573,7 @@
         <v>9</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -6585,7 +6588,7 @@
         <v>9</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>9</v>
@@ -6602,7 +6605,7 @@
         <v>9</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>9</v>
@@ -6614,10 +6617,10 @@
         <v>9</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>9</v>
@@ -6634,7 +6637,7 @@
         <v>9</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -6649,7 +6652,7 @@
         <v>9</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>9</v>
@@ -6666,7 +6669,7 @@
         <v>9</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>9</v>
@@ -6681,7 +6684,7 @@
         <v>9</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>9</v>
@@ -6698,7 +6701,7 @@
         <v>9</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -6710,10 +6713,10 @@
         <v>9</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>9</v>
@@ -6730,7 +6733,7 @@
         <v>9</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>9</v>
@@ -6745,7 +6748,7 @@
         <v>9</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>9</v>

--- a/tl/S00033.MES.BIN.xlsx
+++ b/tl/S00033.MES.BIN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11538F23-E620-4630-AF86-15AD2FC36A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C66E16-3353-4CB2-962E-1985FF898A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="9810" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="54585" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00033.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="462">
   <si>
     <t>Status</t>
   </si>
@@ -50,18 +50,27 @@
     <t>1</t>
   </si>
   <si>
+    <t>I'm working part-time at the TV station today.</t>
+  </si>
+  <si>
     <t>Today I'm working at a TV station as a part-time job.</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>I'll be an assistant director.</t>
+  </si>
+  <si>
     <t>I'm an assistant director-</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>Or what they call an AD.</t>
+  </si>
+  <si>
     <t>or what they call an AD.</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
     <t>11</t>
   </si>
   <si>
+    <t>Today I'm again hurrying to the studio with a borrowed microphone set in both hands, as I was asked to do.</t>
+  </si>
+  <si>
     <t>Today again I'm hurrying to the studio with a borrowed microphone set in both hands, as I was asked to do.</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>17</t>
   </si>
   <si>
+    <t>As I pass by the two women who were just walking ahead of me, I steal a glance at their faces.</t>
+  </si>
+  <si>
     <t>I steal a glance at the faces of the two women walking in front of me.</t>
   </si>
   <si>
@@ -113,18 +128,21 @@
     <t>Touya</t>
   </si>
   <si>
+    <t>Oh, Yuki. Good morning.</t>
+  </si>
+  <si>
     <t>"Hey, it's Yuki. Good morning."</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
+    <t>I give a small wave with my hand still holding the case, looking as if I've just noticed her.</t>
+  </si>
+  <si>
     <t>With a face that shows I only just noticed her, I send a small wave with the microphone case in my hand.</t>
   </si>
   <si>
-    <t>With a face that shows I only just noticed her, I wave a small wave with the case in my hand.</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -134,6 +152,9 @@
     <t>Yuki</t>
   </si>
   <si>
+    <t>Ah, Touya-kun. Good morni-…</t>
+  </si>
+  <si>
     <t>"Oh, Touya-kun. Good morning..."</t>
   </si>
   <si>
@@ -179,37 +200,46 @@
     <t>37</t>
   </si>
   <si>
-    <t>"It's okay Yayoi-san. This person isn't like that."</t>
+    <t>It's okay, Yayoi-san. This person isn't like that.</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>Yuki desperately trieds to show her face from behind the tall woman.</t>
+    <t>Yuki desperately tries to show her face from behind the tall woman.</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
+    <t>The woman tilts her head without changing her expression, but steps back as if following Yuki's words.</t>
+  </si>
+  <si>
     <t>The woman slightly tilts her head without changing her expression, but steps back as if she had understood Yuki's words.</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
+    <t>Sorry. I'm about to start shooting. Oh yeah, you're also working here today, right, Touya-kun?</t>
+  </si>
+  <si>
     <t>"Sorry. I'm taking photos now. Oh yeah, you're working here today too, right Touya-kun?"</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
+    <t>I raise the case I'm holding in both hands and smile.</t>
+  </si>
+  <si>
     <t>I raise the case in both hands and try to smile.</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>Yup.</t>
+    <t>That's right.</t>
   </si>
   <si>
     <t>"Yeah, I guess so."</t>
@@ -230,12 +260,18 @@
     <t>53</t>
   </si>
   <si>
+    <t>She probably knows that part-time work at the TV station is tough from morning till night.</t>
+  </si>
+  <si>
     <t>She probably knows that the TV station's part-time job is a lot of work from morning to night.</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
+    <t>You don't have to worry about me, Yuki. Rather, you're the one who should be careful.</t>
+  </si>
+  <si>
     <t>"You don't need to worry about me. Actually, Yuki, you should be the one to be careful."</t>
   </si>
   <si>
@@ -248,6 +284,9 @@
     <t>59</t>
   </si>
   <si>
+    <t>Well, you often trip and fall on stage, right, Yuki?</t>
+  </si>
+  <si>
     <t>"I mean, you often trip and fall on the stage, right?"</t>
   </si>
   <si>
@@ -260,18 +299,27 @@
     <t>63</t>
   </si>
   <si>
+    <t>Is there really such a performance…?</t>
+  </si>
+  <si>
     <t>I wonder if there's such a production...</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
+    <t>Anyway, do your best no matter what, Yuki.</t>
+  </si>
+  <si>
     <t>"Whatever it is, let's both do our best, Yuki."</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
+    <t>Yeah…</t>
+  </si>
+  <si>
     <t>Yeah...</t>
   </si>
   <si>
@@ -299,417 +347,507 @@
     <t>64</t>
   </si>
   <si>
+    <t>Yayoi</t>
+  </si>
+  <si>
+    <t>Let's go. It's time.</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>The woman who had been holding back behind me interrupts again.</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Just as things were about to get good…</t>
+  </si>
+  <si>
+    <t>When I was about to have a good conversation...</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Well, what can you do?</t>
+  </si>
+  <si>
+    <t>Hmm, what should I do?</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Come to think of it, I'm working too.</t>
+  </si>
+  <si>
+    <t>I guess I'm also working.</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Sorry, Touya-kun. It looks like I have to go. Yeah, when I'm done with my work...</t>
+  </si>
+  <si>
+    <t>Sorry, Touya-kun. Looks like I have to go. Yeah, when my work is done...</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Yuki quickly walks away with that woman, who was in such a hurry that she couldn't even finish her words.</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>I wanted to talk a little more, but I was also taking my time.</t>
+  </si>
+  <si>
+    <t>I wanted to talk a little more, but I was kind of fumbling around.</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>I too hurry off to my workplace.</t>
+  </si>
+  <si>
+    <t>I hurry off to my workplace.</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>The shoot took a bit longer than expected, but I got the job done properly.</t>
+  </si>
+  <si>
+    <t>The filming took a while, but I got the job done properly.</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>The only thing left to do now is clean up.</t>
+  </si>
+  <si>
+    <t>One last job, and then clean up.</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>I pick up the borrowed microphone set in both hands and hurry down the hallway.</t>
+  </si>
+  <si>
+    <t>I pick up the borrowed microphone set in both hands and run down the hall.</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Let's finish up quickly and go home today….</t>
+  </si>
+  <si>
+    <t>I'll finish up quickly and go home today...</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Suddenly, a girl comes out from around the corner.</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>I narrowly avoid a collision with her, but I slip and fall noisily in the hallway, scattering the equipment I was carrying everywhere.</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Ouch...</t>
+  </si>
+  <si>
+    <t>Ugh...</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Are you okay!?</t>
+  </si>
+  <si>
+    <t>"Are you okay?!"</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>As I try to stand up while holding my side which I hit hard, a delicate, slender arm reaches out to me.</t>
+  </si>
+  <si>
+    <t>I try to stand up while holding my side that had been punched. A delicate, slender arm reaches out to me.</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Ah… sorry…</t>
+  </si>
+  <si>
+    <t>Ah...sorry...</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>I take her hand and stand up, and then take a look at her face.</t>
+  </si>
+  <si>
+    <t>I take the hand to stand up and look at the face again.</t>
+  </si>
+  <si>
+    <t>Drop the "again"</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>...Ah-…...</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Rina...Ogata...?</t>
+  </si>
+  <si>
+    <t>Ogata... Rina...?</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>...Am I seeing things?</t>
+  </si>
+  <si>
+    <t>Right...?</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>Are you hurt?</t>
+  </si>
+  <si>
+    <t>"Did you get hurt?"</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>"No, not really..."</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>I reply absentmindedly.</t>
+  </si>
+  <si>
+    <t>I answer absentmindedly.</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>I hadn't really paid much attention to her before, but now that I see her in person again, she really is a beautiful girl.</t>
+  </si>
+  <si>
+    <t>I hadn't been paying much attention to her before, but seeing her in person again, she's definitely a beautiful girl.</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>But, doesn't she remember what happened yesterday?</t>
+  </si>
+  <si>
+    <t>I wonder if she doesn't remember what happened yesterday though.</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>It doesn't seem like it, however….</t>
+  </si>
+  <si>
+    <t>That doesn't seem to be the case though...</t>
+  </si>
+  <si>
+    <t>Weird that it ends with daketo</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>I suddenly feel a painful twinge at the bridge of nose as I remember.</t>
+  </si>
+  <si>
+    <t>Suddenly, I had a painful twinge at the bridge of my nose as I remembered.</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Phew, that's good.</t>
+  </si>
+  <si>
+    <t>That's good.</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>But, ahh~…</t>
+  </si>
+  <si>
+    <t>But, ahh~...</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>She mutters while looking down at my feet.</t>
+  </si>
+  <si>
+    <t>She murmurs while looking at my feet.</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>It was a terrible sight with all the scattered equipment.</t>
+  </si>
+  <si>
+    <t>Deliberately keep "was"</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>I hurriedly start to clean it up.</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>I was just about to collide head-on with Ogata Rina-chan, along with all this equipment…</t>
+  </si>
+  <si>
+    <t>I'm about to have a full-frontal collision with Rina Ogata, together with this thing...</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>It gives me a chill.</t>
+  </si>
+  <si>
+    <t>I freeze for a moment.</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>Sigh….</t>
+  </si>
+  <si>
+    <t>Uh...</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Suddenly, the two slender legs in front of me fold and her face comes down.</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>"There's no helping it. I'll help you."</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>Eh?</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>It's fine, don't worry.</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>She smiles at me like an angel, surprising me.</t>
+  </si>
+  <si>
+    <t>She smiles at me, surprised, like an angel.</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>I can hardly believe that she punched me yesterday….</t>
+  </si>
+  <si>
+    <t>It's unbelievable that the punch from yesterday...</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>You should help too! Do you intend to make me do everything by myself?</t>
+  </si>
+  <si>
+    <t>"Help me out too! Are you just going to leave it all to me?"</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>She says this to someone who appears to be her manager.</t>
+  </si>
+  <si>
+    <t>This is a line she says to someone who seems to be her manager.</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>The thin, fragile-looking man standing nearby collapses to the ground as if he had been shot.</t>
+  </si>
+  <si>
+    <t>The thin, fragile-looking man standing nextby collapses to the ground as if he had been shot.</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>With three people, it only takes a few minutes to clean up.</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>I'm sorry…. Thank you very much...</t>
+  </si>
+  <si>
+    <t>"Sorry... thank you very much..."</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>I bow my head to her in both gratitude and admiration.</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Oh my. Don't worry, it's fine.</t>
+  </si>
+  <si>
+    <t>"Oh, it's alright."</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>She smiles again.</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>She really is a kind girl after all….</t>
+  </si>
+  <si>
+    <t>She's really a kind girl...</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>However, while still smiling, her gaze suddenly sharpens.</t>
+  </si>
+  <si>
+    <t>But while she was still smiling, her expression suddenly turns sharp.</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>But, if you're going to run into someone again, choose someone else next time. Not me.</t>
+  </si>
+  <si>
+    <t>But the next time you bump into someone, make it someone else, not me.</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>There's a strange force behind her words….</t>
+  </si>
+  <si>
+    <t>There's a mysterious presence...</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>And when she starts walking down the hallway, dragging the weak-looking man from before with her, a different man passes by.</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
     <t>Male Voice</t>
   </si>
   <si>
-    <t>Let's go. It's time.</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>The woman who had been holding back behind me interrupts again.</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>When I was about to have a good conversation...</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Hmm, what should I do?</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>I guess I'm also working.</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>Sorry, Touya-kun. Looks like I have to go. Hey, when I'm done with my work...</t>
-  </si>
-  <si>
-    <t>Sorry, Touya-kun. Looks like I have to go. Yeah, when my work is done...</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Yuki quickly walks away with that woman, who was in such a hurry that she couldn't even finish her words.</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>I wanted to talk a little more, but I was kind of fumbling around towards the end.</t>
-  </si>
-  <si>
-    <t>I wanted to talk a little more, but I was kind of fumbling around.</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>I hurry off to my workplace.</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>The filming took a while, but I got the job done properly.</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>The only thing left to do now is clean up.</t>
-  </si>
-  <si>
-    <t>One last job, and then clean up.</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>I pick up the borrowed microphone set in both hands and run down the hall.</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>I'll finish up quickly and go home today...</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Suddenly a girl comes out from around the corner.</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>I narrowly avoid a collision with her, but I slip and fall noisily in the hallway, scattering the equipment I was carrying everywhere.</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Ouch...</t>
-  </si>
-  <si>
-    <t>Ugh...</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>"Are you okay?!"</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>I try to stand up while holding my side that had been punched. A delicate, slender arm reaches out to me.</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Ah...sorry...</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>I take the hand to stand up, then look at the face.</t>
-  </si>
-  <si>
-    <t>I take the hand to stand up and look at the face again.</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>...Ah-...</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Rina...Ogata...?</t>
-  </si>
-  <si>
-    <t>Ogata... Rina...?</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>...Am I seeing things?</t>
-  </si>
-  <si>
-    <t>Right...?</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Rina</t>
-  </si>
-  <si>
-    <t>"Did you get hurt?"</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>"No, not really..."</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>I answer absentmindedly.</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>I hadn't been paying much attention to her before, but seeing her in person again, she's definitely a beautiful girl.</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>I wonder if she remembers what happens yesterday, though.</t>
-  </si>
-  <si>
-    <t>I wonder if she doesn't remember what happened yesterday though.</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>That doesn't seem to be the case though...</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>Suddenly, I feel a painful twinge at the bridge of nose as I remember.</t>
-  </si>
-  <si>
-    <t>Suddenly, I had a painful twinge at the bridge of my nose as I remembered.</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Phew, I'm glad.</t>
-  </si>
-  <si>
-    <t>That's good.</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>But, ahh~...</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>She murmurs while looking at my feet.</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>It was a terrible sight with all the scattered equipment.</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>I hurriedly start to clean it up.</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>I'm about to have a full-frontal collision with Rina Ogata, together with this thing...</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>I freeze for a moment.</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>Wow...</t>
-  </si>
-  <si>
-    <t>Uh...</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Suddenly, the two slender legs in front of me fold up and her face comes down.</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>"There's no helping it. I'll help you."</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>Eh?</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>It's fine, don't worry.</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>She smiles at me, surprised, like an angel.</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>It's hard to believe this is the same girl who punched me yesterday...</t>
-  </si>
-  <si>
-    <t>It's unbelievable that the punch from yesterday...</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>"Help me out too! Are you just going to leave it all to me?"</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>She says this to someone who appears to be her manager.</t>
-  </si>
-  <si>
-    <t>This is a line she says to someone who seems to be her manager.</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>The thin and fragile-looking man standing next to her collapses on the floor like he had been shot.</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>With three people, it only takes a few minutes to clean up.</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>Sorry...thank you so much.</t>
-  </si>
-  <si>
-    <t>"Sorry... thank you very much..."</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>I bow my head to her in both gratitude and admiration.</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>Oh, it's no problem.</t>
-  </si>
-  <si>
-    <t>"Oh, it's alright."</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>She smiles again.</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>She's really a kind girl...</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>While she was still smiling though, her expression suddenly turns sharp.</t>
-  </si>
-  <si>
-    <t>But while she was still smiling, her expression suddenly turns sharp.</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>But the next time you bump into someone, make it someone else, not me.</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>There's a mysterious presence...</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>And when she starts walking down the hallway, dragging the weak-looking man from before with her, a different man passes by.</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
     <t>"Oh, Rina. What's this, apologizing to that young man from yesterday? Alright, good job."</t>
   </si>
   <si>
     <t>191</t>
   </si>
   <si>
+    <t>Ah, it's the old man from yesterday.</t>
+  </si>
+  <si>
     <t>Ah, it's that old man from yesterday.</t>
   </si>
   <si>
     <t>193</t>
   </si>
   <si>
+    <t>How shameless of him to come here.</t>
+  </si>
+  <si>
     <t>He's so rude here too.</t>
   </si>
   <si>
@@ -722,31 +860,43 @@
     <t>197</t>
   </si>
   <si>
+    <t>For some reason, I feel like I know this person....</t>
+  </si>
+  <si>
     <t>I feel like I know this person...</t>
   </si>
   <si>
     <t>199</t>
   </si>
   <si>
+    <t>Seeing him in such a bright, proper place, his image is completely different….</t>
+  </si>
+  <si>
     <t>They look so different in a place like this, so bright and proper...</t>
   </si>
   <si>
     <t>201</t>
   </si>
   <si>
+    <t>Stop it, &lt;Rnii-san|brother&gt;. Don't bring up last night in a place like this...</t>
+  </si>
+  <si>
     <t>"Stop it, brother. Talking about last night here like this..."</t>
   </si>
   <si>
     <t>203</t>
   </si>
   <si>
+    <t>&lt;RNii-san|Brother&gt;?</t>
+  </si>
+  <si>
     <t>Brother?</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
-    <t>"What does it matter if I stop or not... You still don't remember, huh? The young man you knocked out last night..."</t>
+    <t>Stop what...? You still don't remember him, do you? He's the diligent young man you knocked out last night...</t>
   </si>
   <si>
     <t>"What does it matter if I stop or not... You still don't remember, huh? The young laborer you knocked out last night..."</t>
@@ -761,12 +911,18 @@
     <t>209</t>
   </si>
   <si>
+    <t>She stares at me intensely.</t>
+  </si>
+  <si>
     <t>She stares at me.</t>
   </si>
   <si>
     <t>211</t>
   </si>
   <si>
+    <t>Y-yeah…</t>
+  </si>
+  <si>
     <t>Y-yeah...</t>
   </si>
   <si>
@@ -785,24 +941,36 @@
     <t>217</t>
   </si>
   <si>
+    <t>That's what I'm saying. Apologize properly. Don't act all high and mighty and try to cover it up…</t>
+  </si>
+  <si>
     <t>"That's right. Apologize properly. Don't try to act tough and get away with it..."</t>
   </si>
   <si>
     <t>219</t>
   </si>
   <si>
+    <t>Saying this, he lets out a dry laugh and walks away.</t>
+  </si>
+  <si>
     <t>Saying that, he laughs an oddly dry laugh then walks away.</t>
   </si>
   <si>
     <t>221</t>
   </si>
   <si>
+    <t>Don't say stupid things like that at work!</t>
+  </si>
+  <si>
     <t>"Don't keep saying stupid things like this at work!"</t>
   </si>
   <si>
     <t>223</t>
   </si>
   <si>
+    <t>…No one asked you, you know…</t>
+  </si>
+  <si>
     <t>"I haven't heard anything about that... "</t>
   </si>
   <si>
@@ -821,6 +989,9 @@
     <t>229</t>
   </si>
   <si>
+    <t>W-well… No, it's not a big deal or anything…</t>
+  </si>
+  <si>
     <t>"Umm, well... No, nothing really happened... "</t>
   </si>
   <si>
@@ -833,13 +1004,16 @@
     <t>233</t>
   </si>
   <si>
+    <t>Really…. I'm sorry. It's just that yesterday, there were a lot of things…</t>
+  </si>
+  <si>
     <t>"Really... I'm sorry. There were just a few things going on yesterday... "</t>
   </si>
   <si>
     <t>235</t>
   </si>
   <si>
-    <t>Really, I was fine, so don't worry about it.</t>
+    <t>I-it's okay, you don't have to worry about it…</t>
   </si>
   <si>
     <t>"It's alright, so don't worry about it... "</t>
@@ -848,6 +1022,9 @@
     <t>237</t>
   </si>
   <si>
+    <t>I hope that guy didn't tell her that I was bleeding from my nose.</t>
+  </si>
+  <si>
     <t>I hope that person doesn't mention the nosebleed.</t>
   </si>
   <si>
@@ -860,12 +1037,18 @@
     <t>241</t>
   </si>
   <si>
+    <t>That guy from earlier…!</t>
+  </si>
+  <si>
     <t>That person before...!</t>
   </si>
   <si>
     <t>243</t>
   </si>
   <si>
+    <t>Ogata…Eiji-san? …That guy just now…...?</t>
+  </si>
+  <si>
     <t>"Eiji...Ogata-san? What about him now...?"</t>
   </si>
   <si>
@@ -875,150 +1058,228 @@
     <t>247</t>
   </si>
   <si>
+    <t>In public, he has the delicate appearance of a model student, but in reality he's like that. As his little sister, I can't exactly brag about having him as a brother.</t>
+  </si>
+  <si>
     <t>"He looks like a perfect student when he's in public, but that's the real him. As his little sister, I can't really brag about him."</t>
   </si>
   <si>
     <t>249</t>
   </si>
   <si>
+    <t>…Is that so?</t>
+  </si>
+  <si>
     <t>...I see.</t>
   </si>
   <si>
     <t>251</t>
   </si>
   <si>
+    <t>Speaking of Eiji Ogata, he is the older brother of Rina Ogata and the young boss of Ogata Productions, to which Yuki and Rina belong.</t>
+  </si>
+  <si>
     <t>Eiji Ogata is Rina Ogata's older brother and the young boss of Ogata Production where Yuki and she are affiliated.</t>
   </si>
   <si>
     <t>253</t>
   </si>
   <si>
+    <t>He demonstrated his talent at a young age and created his own unique world as a composer and musician.</t>
+  </si>
+  <si>
     <t>He has displayed his talent at a young age and created a unique world as a composer and musician.</t>
   </si>
   <si>
     <t>255</t>
   </si>
   <si>
+    <t>However, before he could mature, he withdrew from the front lines of the music industry as a central figure in a major movement.</t>
+  </si>
+  <si>
     <t>But before he could reach peak maturity, he pulled himself out of the spotlight.</t>
   </si>
   <si>
     <t>257</t>
   </si>
   <si>
+    <t>Since then, he has devoted himself to producing young musicians and idol talents without ever performing on stage himself.</t>
+  </si>
+  <si>
     <t>Since then, he has devoted himself to producing young musicians and idol talents.</t>
   </si>
   <si>
     <t>259</t>
   </si>
   <si>
+    <t>That is "Ogata Productions", where Yuki is also signed.</t>
+  </si>
+  <si>
     <t>That is Ogata Production where Yuki is affiliated.</t>
   </si>
   <si>
     <t>261</t>
   </si>
   <si>
+    <t>When he made this career change, not only were industry insiders let down, but even his fans were disappointed by his actions.</t>
+  </si>
+  <si>
     <t>When he made this transition, people close to him and even his fans were disappointed in his actions.</t>
   </si>
   <si>
     <t>263</t>
   </si>
   <si>
+    <t>In the eyes of the industry people, it looked like child's play, and to his fans, it seemed like a typical salaryman move.</t>
+  </si>
+  <si>
     <t>In the eyes of industry professionals, it looked like a child's game, but to fans it looked like a salaryman-like thing.</t>
   </si>
   <si>
     <t>265</t>
   </si>
   <si>
+    <t>However, he managed to overturn those preconceptions.</t>
+  </si>
+  <si>
     <t>But he managed to overturn those preconceptions.</t>
   </si>
   <si>
     <t>267</t>
   </si>
   <si>
+    <t>His sense was outstanding in all aspects.</t>
+  </si>
+  <si>
     <t>His sense was exceptional in all things.</t>
   </si>
   <si>
     <t>269</t>
   </si>
   <si>
+    <t>In composition, stage direction, advertising strategy, and everything else.</t>
+  </si>
+  <si>
     <t>In composing, stage directing, and advertising strategies.</t>
   </si>
   <si>
     <t>271</t>
   </si>
   <si>
+    <t>And he was hugely successful in sending out idol talents under the "Produced by Ogata" brand.</t>
+  </si>
+  <si>
     <t>And he achieved great success in sending out idol talents under the “Produced by Ogata” brand.</t>
   </si>
   <si>
     <t>273</t>
   </si>
   <si>
+    <t>The first of them was his own sister, Rina Ogata.</t>
+  </si>
+  <si>
     <t>The first one being his own sister, Rina Ogata.</t>
   </si>
   <si>
     <t>275</t>
   </si>
   <si>
+    <t>The popularity of the Ogata siblings exploded.</t>
+  </si>
+  <si>
     <t>The Ogata siblings were explosively popular.</t>
   </si>
   <si>
     <t>277</t>
   </si>
   <si>
+    <t>Riding out that momentum, he sent out the second talent.</t>
+  </si>
+  <si>
     <t>Riding that momentum, he sent out the second one.</t>
   </si>
   <si>
     <t>279</t>
   </si>
   <si>
+    <t>That was Yuki Morikawa.</t>
+  </si>
+  <si>
     <t>That one was Yuki Morikawa.</t>
   </si>
   <si>
     <t>281</t>
   </si>
   <si>
+    <t>…So, speaking honestly, you could say that Yuki owes her debut to his power.</t>
+  </si>
+  <si>
     <t>...So really, it could be said that it was his strength that enabled Yuki to make her debut.</t>
   </si>
   <si>
     <t>283</t>
   </si>
   <si>
+    <t>At least, during the debut phase….</t>
+  </si>
+  <si>
     <t>At least in the debut stage...</t>
   </si>
   <si>
     <t>285</t>
   </si>
   <si>
+    <t>Did I ruin your image of him? That's the real him, though. You shouldn't idolize men like that.</t>
+  </si>
+  <si>
     <t>"Did his image take a hit? But this is the real him. No idolizing those kinds of guys."</t>
   </si>
   <si>
     <t>287</t>
   </si>
   <si>
+    <t>Certainly, the man I saw at the cafe last night didn't look like just any sleazy middle-aged guy.</t>
+  </si>
+  <si>
     <t>Certainly, the person I saw at the cafe last night didn't look like just a sleazy middle-aged man.</t>
   </si>
   <si>
     <t>289</t>
   </si>
   <si>
+    <t>I had seen that man in the shop many times before, not just last night, but I never realized it was Eiji Ogata.</t>
+  </si>
+  <si>
     <t>Not just last night, I should have noticed it was Ogata Eiji every time I saw him in the shop.</t>
   </si>
   <si>
     <t>291</t>
   </si>
   <si>
+    <t>My brother can be temperamental sometimes. Please forgive him, that's just the way he is…</t>
+  </si>
+  <si>
     <t>"My brother really did something rude. Please forgive him, he's just that kind of person..."</t>
   </si>
   <si>
     <t>293</t>
   </si>
   <si>
+    <t>S-sure...</t>
+  </si>
+  <si>
     <t>Eh, ehh...</t>
   </si>
   <si>
+    <t>Choose to translate 乱暴 as tempermental vs violent/rough</t>
+  </si>
+  <si>
     <t>295</t>
   </si>
   <si>
+    <t>It wasn't him who was temperamental though….</t>
+  </si>
+  <si>
     <t>It wasn't him who did something rude...</t>
   </si>
   <si>
@@ -1031,31 +1292,40 @@
     <t>299</t>
   </si>
   <si>
-    <t>"Eh, I'm just an AD...part-time......"</t>
+    <t>"Eh, I'm just an AD…working part-time......"</t>
   </si>
   <si>
     <t>301</t>
   </si>
   <si>
+    <t>You're a hard worker. I'll do my best too, so cheer me on.</t>
+  </si>
+  <si>
     <t>" You're a hard worker. I'll do my best to keep up, so count me in to cheer you on."</t>
   </si>
   <si>
     <t>303</t>
   </si>
   <si>
+    <t>She says this and smiles gracefully.</t>
+  </si>
+  <si>
     <t>She says this and smiles politely.</t>
   </si>
   <si>
     <t>305</t>
   </si>
   <si>
+    <t>Somehow, she's too beautiful, and I blush.</t>
+  </si>
+  <si>
     <t>Somehow it's too beautiful and I become embarrassed...</t>
   </si>
   <si>
     <t>307</t>
   </si>
   <si>
-    <t>Well, good luck.</t>
+    <t>Well, do your best.</t>
   </si>
   <si>
     <t>"Well, do your best."</t>
@@ -1064,25 +1334,37 @@
     <t>309</t>
   </si>
   <si>
+    <t>…Come on, let's go.</t>
+  </si>
+  <si>
     <t>"Come on, let's go."</t>
   </si>
   <si>
     <t>311</t>
   </si>
   <si>
+    <t>Her final sharp words were directed towards the manager.</t>
+  </si>
+  <si>
     <t>The sharp last words were directed towards the manager.</t>
   </si>
   <si>
+    <t>Deliberate past tense</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
+    <t>He had been looking worriedly at his watch the whole time, but when she called out to him, he flinched for a moment and then followed after her, looking relieved.</t>
+  </si>
+  <si>
     <t>He had been looking at his watch with a worried expression, but after being spoken to he seemed to startle briefly before following her as she left, looking relieved.</t>
   </si>
   <si>
     <t>315</t>
   </si>
   <si>
-    <t>She's like an angel, but that demeanor...</t>
+    <t>She's like an angel, but with such an imposing presence…</t>
   </si>
   <si>
     <t>She's like an angel, but that power...</t>
@@ -1091,25 +1373,31 @@
     <t>317</t>
   </si>
   <si>
+    <t>Well, my work is finished.</t>
+  </si>
+  <si>
     <t>Alright, work is done.</t>
   </si>
   <si>
     <t>319</t>
   </si>
   <si>
-    <t>It looks like Yuki and the others still have work.</t>
+    <t>It looks like Yuki and the others still have work to do.</t>
   </si>
   <si>
     <t>321</t>
   </si>
   <si>
-    <t>Being an idol is hard work...</t>
+    <t>They have it tough….</t>
   </si>
   <si>
     <t>This is going to be tough...</t>
   </si>
   <si>
     <t>323</t>
+  </si>
+  <si>
+    <t>Anyway, let's head home for today.</t>
   </si>
   <si>
     <t>Anyways, I'll go home today.</t>
@@ -1534,7 +1822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1593,10 +1883,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -1613,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -1625,10 +1915,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>9</v>
@@ -1645,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1657,10 +1947,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1677,7 +1967,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -1692,7 +1982,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>9</v>
@@ -1709,7 +1999,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1724,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -1741,7 +2031,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -1753,10 +2043,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
@@ -1773,7 +2063,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1788,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -1805,7 +2095,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1820,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -1837,7 +2127,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1849,10 +2139,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -1869,7 +2159,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1884,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -1901,22 +2191,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
@@ -1933,7 +2223,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1945,10 +2235,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>9</v>
@@ -1965,22 +2255,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -1997,13 +2287,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>9</v>
@@ -2012,7 +2302,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -2029,7 +2319,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -2044,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -2061,13 +2351,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>9</v>
@@ -2076,7 +2366,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
@@ -2093,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -2108,7 +2398,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -2125,7 +2415,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -2137,10 +2427,10 @@
         <v>9</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>9</v>
@@ -2157,13 +2447,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
@@ -2172,7 +2462,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -2189,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
@@ -2204,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>9</v>
@@ -2221,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -2233,10 +2523,10 @@
         <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -2253,22 +2543,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
@@ -2285,7 +2575,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -2297,10 +2587,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -2317,22 +2607,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -2349,13 +2639,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
@@ -2364,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -2381,7 +2671,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -2396,7 +2686,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
@@ -2413,7 +2703,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2425,10 +2715,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>9</v>
@@ -2445,22 +2735,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>9</v>
@@ -2477,13 +2767,13 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
@@ -2492,7 +2782,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -2509,22 +2799,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>9</v>
@@ -2541,13 +2831,13 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
@@ -2556,7 +2846,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>9</v>
@@ -2573,7 +2863,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>9</v>
@@ -2585,10 +2875,10 @@
         <v>9</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -2605,22 +2895,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -2637,22 +2927,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>9</v>
@@ -2669,7 +2959,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2684,7 +2974,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
@@ -2701,7 +2991,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>9</v>
@@ -2716,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
@@ -2733,13 +3023,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
@@ -2748,7 +3038,7 @@
         <v>9</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>9</v>
@@ -2765,13 +3055,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>9</v>
@@ -2780,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>9</v>
@@ -2797,7 +3087,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -2812,7 +3102,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -2829,7 +3119,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>9</v>
@@ -2841,10 +3131,10 @@
         <v>9</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>9</v>
@@ -2861,7 +3151,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -2873,10 +3163,10 @@
         <v>9</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>9</v>
@@ -2893,7 +3183,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>9</v>
@@ -2905,10 +3195,10 @@
         <v>9</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>9</v>
@@ -2925,22 +3215,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>9</v>
@@ -2957,7 +3247,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>9</v>
@@ -2972,7 +3262,7 @@
         <v>9</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>9</v>
@@ -2989,7 +3279,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -3001,10 +3291,10 @@
         <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>9</v>
@@ -3021,7 +3311,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>9</v>
@@ -3033,10 +3323,10 @@
         <v>9</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>9</v>
@@ -3053,7 +3343,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -3065,10 +3355,10 @@
         <v>9</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>9</v>
@@ -3085,7 +3375,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>9</v>
@@ -3097,10 +3387,10 @@
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>9</v>
@@ -3117,7 +3407,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -3129,10 +3419,10 @@
         <v>9</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>9</v>
@@ -3149,7 +3439,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>9</v>
@@ -3161,10 +3451,10 @@
         <v>9</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>9</v>
@@ -3181,7 +3471,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -3196,7 +3486,7 @@
         <v>9</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>9</v>
@@ -3213,7 +3503,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>9</v>
@@ -3228,7 +3518,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>9</v>
@@ -3245,22 +3535,22 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>9</v>
@@ -3277,22 +3567,22 @@
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>9</v>
@@ -3309,7 +3599,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -3321,10 +3611,10 @@
         <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>9</v>
@@ -3341,22 +3631,22 @@
         <v>9</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>9</v>
@@ -3373,7 +3663,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3385,13 +3675,13 @@
         <v>9</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>9</v>
@@ -3405,13 +3695,13 @@
         <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>9</v>
@@ -3420,7 +3710,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>9</v>
@@ -3437,7 +3727,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -3449,10 +3739,10 @@
         <v>9</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>9</v>
@@ -3469,7 +3759,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>9</v>
@@ -3481,10 +3771,10 @@
         <v>9</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>9</v>
@@ -3501,22 +3791,22 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>9</v>
@@ -3533,13 +3823,13 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
@@ -3548,7 +3838,7 @@
         <v>9</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>9</v>
@@ -3565,7 +3855,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3577,10 +3867,10 @@
         <v>9</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>9</v>
@@ -3597,7 +3887,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>9</v>
@@ -3609,10 +3899,10 @@
         <v>9</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>9</v>
@@ -3629,7 +3919,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3641,10 +3931,10 @@
         <v>9</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>9</v>
@@ -3661,7 +3951,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>9</v>
@@ -3673,13 +3963,13 @@
         <v>9</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>9</v>
@@ -3693,7 +3983,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3705,10 +3995,10 @@
         <v>9</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>9</v>
@@ -3725,22 +4015,22 @@
         <v>9</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>9</v>
@@ -3757,22 +4047,22 @@
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>9</v>
@@ -3789,7 +4079,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>9</v>
@@ -3801,10 +4091,10 @@
         <v>9</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>9</v>
@@ -3821,7 +4111,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3836,10 +4126,10 @@
         <v>9</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>9</v>
@@ -3853,7 +4143,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>9</v>
@@ -3868,7 +4158,7 @@
         <v>9</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>9</v>
@@ -3885,7 +4175,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3897,10 +4187,10 @@
         <v>9</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>9</v>
@@ -3917,7 +4207,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
@@ -3929,10 +4219,10 @@
         <v>9</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>9</v>
@@ -3949,7 +4239,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3961,10 +4251,10 @@
         <v>9</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>9</v>
@@ -3981,7 +4271,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>9</v>
@@ -3996,7 +4286,7 @@
         <v>9</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>9</v>
@@ -4013,13 +4303,13 @@
         <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
@@ -4028,7 +4318,7 @@
         <v>9</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>9</v>
@@ -4045,13 +4335,13 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
@@ -4060,7 +4350,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>9</v>
@@ -4077,13 +4367,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
@@ -4092,7 +4382,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>9</v>
@@ -4109,7 +4399,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>9</v>
@@ -4121,10 +4411,10 @@
         <v>9</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>9</v>
@@ -4141,7 +4431,7 @@
         <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -4153,10 +4443,10 @@
         <v>9</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>9</v>
@@ -4173,22 +4463,22 @@
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>9</v>
@@ -4205,7 +4495,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -4217,10 +4507,10 @@
         <v>9</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>9</v>
@@ -4237,7 +4527,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>9</v>
@@ -4249,10 +4539,10 @@
         <v>9</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>9</v>
@@ -4269,7 +4559,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -4284,7 +4574,7 @@
         <v>9</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>9</v>
@@ -4301,22 +4591,22 @@
         <v>9</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>9</v>
@@ -4333,7 +4623,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -4348,7 +4638,7 @@
         <v>9</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>9</v>
@@ -4365,22 +4655,22 @@
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>9</v>
@@ -4397,7 +4687,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -4412,7 +4702,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>9</v>
@@ -4429,7 +4719,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>9</v>
@@ -4441,10 +4731,10 @@
         <v>9</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>9</v>
@@ -4461,7 +4751,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -4473,10 +4763,10 @@
         <v>9</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>9</v>
@@ -4493,22 +4783,22 @@
         <v>9</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>9</v>
@@ -4525,7 +4815,7 @@
         <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -4537,10 +4827,10 @@
         <v>9</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>265</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>9</v>
@@ -4557,7 +4847,7 @@
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>9</v>
@@ -4572,7 +4862,7 @@
         <v>9</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>9</v>
@@ -4589,13 +4879,13 @@
         <v>9</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>94</v>
+        <v>270</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>9</v>
@@ -4604,7 +4894,7 @@
         <v>9</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>9</v>
@@ -4621,7 +4911,7 @@
         <v>9</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>9</v>
@@ -4633,10 +4923,10 @@
         <v>9</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>9</v>
@@ -4653,7 +4943,7 @@
         <v>9</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -4665,10 +4955,10 @@
         <v>9</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>276</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>9</v>
@@ -4685,7 +4975,7 @@
         <v>9</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>9</v>
@@ -4700,7 +4990,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>9</v>
@@ -4717,7 +5007,7 @@
         <v>9</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -4729,10 +5019,10 @@
         <v>9</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>9</v>
@@ -4749,7 +5039,7 @@
         <v>9</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>9</v>
@@ -4761,10 +5051,10 @@
         <v>9</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>9</v>
+        <v>284</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>9</v>
@@ -4781,22 +5071,22 @@
         <v>9</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>287</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>9</v>
@@ -4813,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>9</v>
@@ -4825,10 +5115,10 @@
         <v>9</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>9</v>
@@ -4845,22 +5135,22 @@
         <v>9</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>94</v>
+        <v>270</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>9</v>
@@ -4877,13 +5167,13 @@
         <v>9</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>9</v>
@@ -4892,7 +5182,7 @@
         <v>9</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>9</v>
@@ -4909,7 +5199,7 @@
         <v>9</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4921,10 +5211,10 @@
         <v>9</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>9</v>
@@ -4941,22 +5231,22 @@
         <v>9</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>9</v>
+        <v>301</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>9</v>
@@ -4973,7 +5263,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4988,7 +5278,7 @@
         <v>9</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>9</v>
@@ -5005,13 +5295,13 @@
         <v>9</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>9</v>
@@ -5020,7 +5310,7 @@
         <v>9</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>9</v>
@@ -5037,22 +5327,22 @@
         <v>9</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>94</v>
+        <v>270</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>308</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>9</v>
@@ -5069,7 +5359,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>9</v>
@@ -5081,10 +5371,10 @@
         <v>9</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>9</v>
@@ -5101,22 +5391,22 @@
         <v>9</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>9</v>
@@ -5133,22 +5423,22 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>9</v>
@@ -5165,7 +5455,7 @@
         <v>9</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -5180,7 +5470,7 @@
         <v>9</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>9</v>
@@ -5197,13 +5487,13 @@
         <v>9</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>9</v>
@@ -5212,7 +5502,7 @@
         <v>9</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>9</v>
@@ -5229,22 +5519,22 @@
         <v>9</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>9</v>
@@ -5261,7 +5551,7 @@
         <v>9</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>9</v>
@@ -5276,7 +5566,7 @@
         <v>9</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>9</v>
@@ -5293,22 +5583,22 @@
         <v>9</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>329</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>9</v>
@@ -5325,22 +5615,22 @@
         <v>9</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>9</v>
@@ -5357,7 +5647,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -5369,10 +5659,10 @@
         <v>9</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>335</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>9</v>
@@ -5389,7 +5679,7 @@
         <v>9</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>9</v>
@@ -5404,7 +5694,7 @@
         <v>9</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>9</v>
@@ -5421,7 +5711,7 @@
         <v>9</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>280</v>
+        <v>339</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -5433,10 +5723,10 @@
         <v>9</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>340</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>9</v>
@@ -5453,22 +5743,22 @@
         <v>9</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>9</v>
+        <v>343</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>9</v>
@@ -5485,22 +5775,22 @@
         <v>9</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>301</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>9</v>
@@ -5517,22 +5807,22 @@
         <v>9</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>9</v>
@@ -5549,22 +5839,22 @@
         <v>9</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>9</v>
@@ -5581,7 +5871,7 @@
         <v>9</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>9</v>
@@ -5593,10 +5883,10 @@
         <v>9</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>9</v>
+        <v>353</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>9</v>
@@ -5613,7 +5903,7 @@
         <v>9</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -5625,10 +5915,10 @@
         <v>9</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>356</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>9</v>
@@ -5645,7 +5935,7 @@
         <v>9</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>293</v>
+        <v>358</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>9</v>
@@ -5657,10 +5947,10 @@
         <v>9</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>9</v>
+        <v>359</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>9</v>
@@ -5677,7 +5967,7 @@
         <v>9</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -5689,10 +5979,10 @@
         <v>9</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>362</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>9</v>
@@ -5709,7 +5999,7 @@
         <v>9</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>9</v>
@@ -5721,10 +6011,10 @@
         <v>9</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>9</v>
+        <v>365</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>9</v>
@@ -5741,7 +6031,7 @@
         <v>9</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -5753,10 +6043,10 @@
         <v>9</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>368</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>9</v>
@@ -5773,7 +6063,7 @@
         <v>9</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>9</v>
@@ -5785,10 +6075,10 @@
         <v>9</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>9</v>
+        <v>371</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>9</v>
@@ -5805,7 +6095,7 @@
         <v>9</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -5817,10 +6107,10 @@
         <v>9</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>374</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>9</v>
@@ -5837,7 +6127,7 @@
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>305</v>
+        <v>376</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>9</v>
@@ -5849,10 +6139,10 @@
         <v>9</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>9</v>
+        <v>377</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>306</v>
+        <v>378</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>9</v>
@@ -5869,7 +6159,7 @@
         <v>9</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>307</v>
+        <v>379</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -5881,10 +6171,10 @@
         <v>9</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>9</v>
@@ -5901,7 +6191,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>309</v>
+        <v>382</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>9</v>
@@ -5913,10 +6203,10 @@
         <v>9</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>9</v>
+        <v>383</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>310</v>
+        <v>384</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>9</v>
@@ -5933,7 +6223,7 @@
         <v>9</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>311</v>
+        <v>385</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -5945,10 +6235,10 @@
         <v>9</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>386</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>312</v>
+        <v>387</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>9</v>
@@ -5965,7 +6255,7 @@
         <v>9</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>9</v>
@@ -5977,10 +6267,10 @@
         <v>9</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>9</v>
+        <v>389</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>9</v>
@@ -5997,7 +6287,7 @@
         <v>9</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -6009,10 +6299,10 @@
         <v>9</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>392</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>9</v>
@@ -6029,7 +6319,7 @@
         <v>9</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>9</v>
@@ -6041,10 +6331,10 @@
         <v>9</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>9</v>
+        <v>395</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>318</v>
+        <v>396</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>9</v>
@@ -6061,7 +6351,7 @@
         <v>9</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -6073,10 +6363,10 @@
         <v>9</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>398</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>9</v>
@@ -6093,7 +6383,7 @@
         <v>9</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>9</v>
@@ -6105,10 +6395,10 @@
         <v>9</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>9</v>
+        <v>401</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>322</v>
+        <v>402</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>9</v>
@@ -6125,22 +6415,22 @@
         <v>9</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>404</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>9</v>
@@ -6157,7 +6447,7 @@
         <v>9</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>9</v>
@@ -6169,10 +6459,10 @@
         <v>9</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>9</v>
+        <v>407</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>326</v>
+        <v>408</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>9</v>
@@ -6189,7 +6479,7 @@
         <v>9</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>327</v>
+        <v>409</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -6201,10 +6491,10 @@
         <v>9</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>410</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>328</v>
+        <v>411</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>9</v>
@@ -6221,22 +6511,22 @@
         <v>9</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>329</v>
+        <v>412</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>9</v>
+        <v>413</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>330</v>
+        <v>414</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>9</v>
@@ -6253,25 +6543,25 @@
         <v>9</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>331</v>
+        <v>415</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>416</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>332</v>
+        <v>417</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>9</v>
+        <v>418</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>9</v>
@@ -6285,7 +6575,7 @@
         <v>9</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>9</v>
@@ -6297,10 +6587,10 @@
         <v>9</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>9</v>
@@ -6317,13 +6607,13 @@
         <v>9</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>335</v>
+        <v>422</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>9</v>
@@ -6332,7 +6622,7 @@
         <v>9</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>9</v>
@@ -6349,13 +6639,13 @@
         <v>9</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>337</v>
+        <v>424</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>9</v>
@@ -6364,7 +6654,7 @@
         <v>9</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>9</v>
@@ -6381,22 +6671,22 @@
         <v>9</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>427</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>340</v>
+        <v>428</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>9</v>
@@ -6413,7 +6703,7 @@
         <v>9</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>341</v>
+        <v>429</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>9</v>
@@ -6425,10 +6715,10 @@
         <v>9</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>9</v>
+        <v>430</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>342</v>
+        <v>431</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>9</v>
@@ -6445,7 +6735,7 @@
         <v>9</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -6457,10 +6747,10 @@
         <v>9</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>433</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>344</v>
+        <v>434</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>9</v>
@@ -6477,22 +6767,22 @@
         <v>9</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>345</v>
+        <v>435</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>346</v>
+        <v>436</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>347</v>
+        <v>437</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>9</v>
@@ -6509,22 +6799,22 @@
         <v>9</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>348</v>
+        <v>438</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>439</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>349</v>
+        <v>440</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>9</v>
@@ -6541,7 +6831,7 @@
         <v>9</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>350</v>
+        <v>441</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>9</v>
@@ -6553,13 +6843,13 @@
         <v>9</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>9</v>
+        <v>442</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>351</v>
+        <v>443</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="I157" s="5" t="s">
         <v>9</v>
@@ -6573,7 +6863,7 @@
         <v>9</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>352</v>
+        <v>445</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -6585,10 +6875,10 @@
         <v>9</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>9</v>
@@ -6605,7 +6895,7 @@
         <v>9</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>354</v>
+        <v>448</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>9</v>
@@ -6617,10 +6907,10 @@
         <v>9</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>355</v>
+        <v>449</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>9</v>
@@ -6637,7 +6927,7 @@
         <v>9</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>357</v>
+        <v>451</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -6649,10 +6939,10 @@
         <v>9</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>452</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>358</v>
+        <v>453</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>9</v>
@@ -6669,7 +6959,7 @@
         <v>9</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>359</v>
+        <v>454</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>9</v>
@@ -6684,7 +6974,7 @@
         <v>9</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>360</v>
+        <v>455</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>9</v>
@@ -6701,7 +6991,7 @@
         <v>9</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>361</v>
+        <v>456</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -6713,10 +7003,10 @@
         <v>9</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>362</v>
+        <v>457</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>363</v>
+        <v>458</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>9</v>
@@ -6733,7 +7023,7 @@
         <v>9</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>364</v>
+        <v>459</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>9</v>
@@ -6745,10 +7035,10 @@
         <v>9</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>9</v>
+        <v>460</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>365</v>
+        <v>461</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>9</v>
